--- a/SpaOnline/EventStorming/Reserva - Event Storming.xlsx
+++ b/SpaOnline/EventStorming/Reserva - Event Storming.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\EventStorming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\EventStorming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB443816-C2E2-44AE-936C-D47DA754ED0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA372445-11B1-40FF-AE8D-D8899F30946B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="744" firstSheet="1" activeTab="7" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="744" firstSheet="1" activeTab="4" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos en el tiempo" sheetId="61" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="150">
   <si>
     <t>Descripción</t>
   </si>
@@ -533,6 +533,9 @@
   </si>
   <si>
     <t>Pol-Servicio-004</t>
+  </si>
+  <si>
+    <t>Realizar Reserva</t>
   </si>
 </sst>
 </file>
@@ -1134,24 +1137,27 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1159,9 +1165,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1176,9 +1179,6 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1206,11 +1206,62 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1239,52 +1290,7 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1293,8 +1299,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1329,18 +1338,15 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1369,9 +1375,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2032,63 +2035,63 @@
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75" t="str">
+      <c r="B2" s="74" t="str">
         <f>'Listado Objetos de Dominio'!$A$4</f>
         <v>Cliente</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="76"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="75"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="77" t="str">
+      <c r="B3" s="53" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene la informacion basica de los clientes del spa</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="78"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="67"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="70" t="s">
+      <c r="F4" s="56"/>
+      <c r="G4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="70"/>
+      <c r="H4" s="69"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -2098,10 +2101,10 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="73" t="s">
+      <c r="L4" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="74" t="s">
+      <c r="M4" s="73" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
@@ -2110,39 +2113,39 @@
       <c r="A5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="55" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="68" t="s">
+      <c r="F5" s="56"/>
+      <c r="G5" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="71" t="s">
+      <c r="H5" s="67"/>
+      <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="69" t="s">
+      <c r="K5" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="73"/>
-      <c r="M5" s="74"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="73"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="66"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="64"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
@@ -2156,47 +2159,47 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="74"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="73"/>
     </row>
     <row r="7" spans="1:14" s="24" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="56" t="s">
+      <c r="H7" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56" t="s">
+      <c r="I7" s="57"/>
+      <c r="J7" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="59"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="60"/>
     </row>
     <row r="8" spans="1:14" s="24" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="76" t="s">
         <v>95</v>
       </c>
       <c r="B8" s="58"/>
@@ -2204,57 +2207,58 @@
       <c r="D8" s="58"/>
       <c r="E8" s="58"/>
       <c r="F8" s="58"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
       <c r="I8" s="58"/>
       <c r="J8" s="58"/>
       <c r="K8" s="58"/>
       <c r="L8" s="58"/>
-      <c r="M8" s="60"/>
+      <c r="M8" s="61"/>
     </row>
     <row r="9" spans="1:14" s="24" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="58"/>
       <c r="C9" s="58"/>
       <c r="D9" s="58"/>
       <c r="E9" s="58"/>
       <c r="F9" s="58"/>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="H9" s="57" t="s">
         <v>36</v>
       </c>
       <c r="I9" s="58"/>
       <c r="J9" s="58"/>
       <c r="K9" s="58"/>
       <c r="L9" s="58"/>
-      <c r="M9" s="60"/>
+      <c r="M9" s="61"/>
     </row>
     <row r="10" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="61"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -2267,19 +2271,18 @@
     <mergeCell ref="L4:L6"/>
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="I7:I10"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="J7:J10"/>
     <mergeCell ref="K7:K10"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -2343,63 +2346,63 @@
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75" t="str">
+      <c r="B2" s="74" t="str">
         <f>+'Listado Objetos de Dominio'!A5</f>
         <v>Consentimiento</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="76"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="75"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="77" t="str">
+      <c r="B3" s="53" t="str">
         <f>+'Listado Objetos de Dominio'!B5</f>
         <v>Objeto de dominio que contiene la informacion del consentimiento</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="78"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="67"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="70" t="s">
+      <c r="F4" s="56"/>
+      <c r="G4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="70"/>
+      <c r="H4" s="69"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -2409,10 +2412,10 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="73" t="s">
+      <c r="L4" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="74" t="s">
+      <c r="M4" s="73" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
@@ -2421,39 +2424,39 @@
       <c r="A5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="55" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="68" t="s">
+      <c r="F5" s="56"/>
+      <c r="G5" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="71" t="s">
+      <c r="H5" s="67"/>
+      <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="69" t="s">
+      <c r="K5" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="73"/>
-      <c r="M5" s="74"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="73"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="66"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="64"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
@@ -2467,38 +2470,38 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="74"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="73"/>
     </row>
     <row r="7" spans="1:14" s="24" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
       <c r="G7" s="31" t="s">
         <v>51</v>
       </c>
       <c r="H7" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88" t="s">
+      <c r="I7" s="89"/>
+      <c r="J7" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="88"/>
+      <c r="K7" s="89"/>
       <c r="L7" s="31" t="s">
         <v>60</v>
       </c>
@@ -2507,22 +2510,22 @@
       </c>
     </row>
     <row r="8" spans="1:14" s="24" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
       <c r="G8" s="31" t="s">
         <v>52</v>
       </c>
       <c r="H8" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="88" t="s">
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="89" t="s">
         <v>62</v>
       </c>
       <c r="M8" s="32" t="s">
@@ -2530,7 +2533,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" s="24" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="90"/>
       <c r="C9" s="90"/>
       <c r="D9" s="90"/>
@@ -2551,7 +2554,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" s="24" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="101" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="91" t="s">
@@ -2584,7 +2587,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" s="24" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
+      <c r="A11" s="102"/>
       <c r="B11" s="92"/>
       <c r="C11" s="92"/>
       <c r="D11" s="92"/>
@@ -2602,12 +2605,12 @@
       <c r="L11" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="M11" s="94" t="s">
+      <c r="M11" s="87" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="24" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="87"/>
+      <c r="A12" s="103"/>
       <c r="B12" s="93"/>
       <c r="C12" s="93"/>
       <c r="D12" s="93"/>
@@ -2623,122 +2626,122 @@
       <c r="J12" s="93"/>
       <c r="K12" s="93"/>
       <c r="L12" s="93"/>
-      <c r="M12" s="95"/>
+      <c r="M12" s="88"/>
     </row>
     <row r="13" spans="1:14" s="24" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56" t="s">
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="56" t="s">
+      <c r="H13" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56" t="s">
+      <c r="I13" s="57"/>
+      <c r="J13" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="K13" s="56"/>
+      <c r="K13" s="57"/>
       <c r="L13" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="M13" s="99" t="s">
+      <c r="M13" s="82" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="24" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="58"/>
       <c r="C14" s="58"/>
       <c r="D14" s="58"/>
       <c r="E14" s="58"/>
       <c r="F14" s="58"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
       <c r="I14" s="58"/>
       <c r="J14" s="58"/>
       <c r="K14" s="58"/>
       <c r="L14" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="M14" s="99"/>
+      <c r="M14" s="82"/>
     </row>
     <row r="15" spans="1:14" s="24" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="58"/>
       <c r="C15" s="58"/>
       <c r="D15" s="58"/>
       <c r="E15" s="58"/>
       <c r="F15" s="58"/>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="56" t="s">
+      <c r="H15" s="57" t="s">
         <v>36</v>
       </c>
       <c r="I15" s="58"/>
       <c r="J15" s="58"/>
       <c r="K15" s="58"/>
-      <c r="L15" s="56" t="s">
+      <c r="L15" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="M15" s="100" t="s">
+      <c r="M15" s="83" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="24" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="101"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="84"/>
     </row>
     <row r="17" spans="1:13" s="24" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="96" t="s">
+      <c r="C17" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="96" t="s">
+      <c r="D17" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96" t="s">
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="96" t="s">
+      <c r="H17" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96" t="s">
+      <c r="I17" s="79"/>
+      <c r="J17" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="K17" s="96"/>
+      <c r="K17" s="79"/>
       <c r="L17" s="35" t="s">
         <v>59</v>
       </c>
@@ -2747,70 +2750,66 @@
       </c>
     </row>
     <row r="18" spans="1:13" s="24" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="80"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
       <c r="L18" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="M18" s="102" t="s">
+      <c r="M18" s="85" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="24" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
       <c r="L19" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="M19" s="103"/>
+      <c r="M19" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="K13:K16"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I16"/>
-    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:I6"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
@@ -2824,32 +2823,36 @@
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="K7:K9"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:I6"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="K13:K16"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{A1BF5196-6B81-4A2B-9969-D82FF594EDD4}"/>
@@ -2864,8 +2867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D92F1E-F2A4-42C7-A1E0-223002160541}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView topLeftCell="H16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17:L18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2913,63 +2916,63 @@
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75" t="str">
+      <c r="B2" s="74" t="str">
         <f>+'Listado Objetos de Dominio'!A6</f>
         <v>Reserva</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="76"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="75"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="77" t="str">
+      <c r="B3" s="53" t="str">
         <f>+'Listado Objetos de Dominio'!B6</f>
         <v>Objeto de dominio que contiene la informacion de las reservas de las citas del Spa que solo se puede reservar un solo servicio por reserva</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="78"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="67"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="70" t="s">
+      <c r="F4" s="56"/>
+      <c r="G4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="70"/>
+      <c r="H4" s="69"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -2979,10 +2982,10 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="73" t="s">
+      <c r="L4" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="74" t="s">
+      <c r="M4" s="73" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
@@ -2991,39 +2994,39 @@
       <c r="A5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="55" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="68" t="s">
+      <c r="F5" s="56"/>
+      <c r="G5" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="71" t="s">
+      <c r="H5" s="67"/>
+      <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="69" t="s">
+      <c r="K5" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="73"/>
-      <c r="M5" s="74"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="73"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="66"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="64"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
@@ -3037,23 +3040,23 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="74"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="73"/>
     </row>
     <row r="7" spans="1:14" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="88" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="88" t="s">
+      <c r="B7" s="89" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="89" t="s">
         <v>81</v>
       </c>
       <c r="E7" s="31" t="s">
@@ -3068,11 +3071,11 @@
       <c r="H7" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88" t="s">
+      <c r="I7" s="89"/>
+      <c r="J7" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="K7" s="88"/>
+      <c r="K7" s="89"/>
       <c r="L7" s="31" t="s">
         <v>101</v>
       </c>
@@ -3081,39 +3084,39 @@
       </c>
     </row>
     <row r="8" spans="1:14" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
       <c r="E8" s="31" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="88" t="s">
+      <c r="G8" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="88" t="s">
+      <c r="H8" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="88" t="s">
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="89" t="s">
         <v>104</v>
       </c>
-      <c r="M8" s="104" t="s">
+      <c r="M8" s="105" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="31" t="s">
         <v>87</v>
       </c>
@@ -3122,14 +3125,14 @@
       </c>
       <c r="G9" s="90"/>
       <c r="H9" s="90"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="105"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="106"/>
     </row>
     <row r="10" spans="1:14" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
+      <c r="A10" s="100"/>
       <c r="B10" s="90"/>
       <c r="C10" s="90"/>
       <c r="D10" s="90"/>
@@ -3154,7 +3157,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="101" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="91" t="s">
@@ -3186,12 +3189,12 @@
       <c r="L11" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="M11" s="94" t="s">
+      <c r="M11" s="87" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="86"/>
+      <c r="A12" s="102"/>
       <c r="B12" s="92"/>
       <c r="C12" s="92"/>
       <c r="D12" s="92"/>
@@ -3207,10 +3210,10 @@
       <c r="J12" s="92"/>
       <c r="K12" s="92"/>
       <c r="L12" s="93"/>
-      <c r="M12" s="95"/>
+      <c r="M12" s="88"/>
     </row>
     <row r="13" spans="1:14" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
+      <c r="A13" s="102"/>
       <c r="B13" s="92"/>
       <c r="C13" s="92"/>
       <c r="D13" s="92"/>
@@ -3232,12 +3235,12 @@
       <c r="L13" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="M13" s="94" t="s">
+      <c r="M13" s="87" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="87"/>
+      <c r="A14" s="103"/>
       <c r="B14" s="93"/>
       <c r="C14" s="93"/>
       <c r="D14" s="93"/>
@@ -3257,19 +3260,19 @@
       <c r="J14" s="93"/>
       <c r="K14" s="93"/>
       <c r="L14" s="93"/>
-      <c r="M14" s="95"/>
+      <c r="M14" s="88"/>
     </row>
     <row r="15" spans="1:14" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="57" t="s">
         <v>81</v>
       </c>
       <c r="E15" s="30" t="s">
@@ -3278,26 +3281,26 @@
       <c r="F15" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="56" t="s">
+      <c r="H15" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56" t="s">
+      <c r="I15" s="57"/>
+      <c r="J15" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="K15" s="56"/>
+      <c r="K15" s="57"/>
       <c r="L15" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="M15" s="99" t="s">
+      <c r="M15" s="82" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="78"/>
       <c r="B16" s="58"/>
       <c r="C16" s="58"/>
       <c r="D16" s="58"/>
@@ -3307,15 +3310,15 @@
       <c r="F16" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
       <c r="I16" s="58"/>
       <c r="J16" s="58"/>
       <c r="K16" s="58"/>
       <c r="L16" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="M16" s="99"/>
+      <c r="M16" s="82"/>
     </row>
     <row r="17" spans="1:13" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
@@ -3330,19 +3333,19 @@
       <c r="F17" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="G17" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="H17" s="56" t="s">
+      <c r="H17" s="57" t="s">
         <v>118</v>
       </c>
       <c r="I17" s="58"/>
       <c r="J17" s="58"/>
       <c r="K17" s="58"/>
-      <c r="L17" s="56" t="s">
+      <c r="L17" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="M17" s="100" t="s">
+      <c r="M17" s="83" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3350,34 +3353,34 @@
       <c r="A18" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
       <c r="E18" s="30" t="s">
         <v>130</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="101"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="84"/>
     </row>
     <row r="19" spans="1:13" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="96" t="s">
+      <c r="C19" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="96" t="s">
+      <c r="D19" s="79" t="s">
         <v>81</v>
       </c>
       <c r="E19" s="42" t="s">
@@ -3386,17 +3389,17 @@
       <c r="F19" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="96" t="s">
+      <c r="G19" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="H19" s="96" t="s">
+      <c r="H19" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96" t="s">
+      <c r="I19" s="79"/>
+      <c r="J19" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="K19" s="96"/>
+      <c r="K19" s="79"/>
       <c r="L19" s="35" t="s">
         <v>100</v>
       </c>
@@ -3405,82 +3408,114 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="80"/>
-      <c r="B20" s="97"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
+      <c r="A20" s="96"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
       <c r="E20" s="43" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="96" t="s">
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="M20" s="102" t="s">
+      <c r="M20" s="85" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="80" t="s">
+      <c r="A21" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
       <c r="E21" s="43" t="s">
         <v>87</v>
       </c>
       <c r="F21" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="106"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="104"/>
     </row>
     <row r="22" spans="1:13" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="81"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
+      <c r="A22" s="97"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
       <c r="E22" s="44" t="s">
         <v>130</v>
       </c>
       <c r="F22" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="98"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
       <c r="L22" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="M22" s="103"/>
+      <c r="M22" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="M20:M22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L13:L14"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="D7:D10"/>
@@ -3497,48 +3532,16 @@
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="L17:L18"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="K19:K22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{9DF923ED-1686-4B14-A06E-2CBA5434B074}"/>
@@ -3602,63 +3605,63 @@
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75" t="str">
+      <c r="B2" s="74" t="str">
         <f>+'Listado Objetos de Dominio'!A6</f>
         <v>Reserva</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="76"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="75"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="77" t="str">
+      <c r="B3" s="53" t="str">
         <f>+'Listado Objetos de Dominio'!B6</f>
         <v>Objeto de dominio que contiene la informacion de las reservas de las citas del Spa que solo se puede reservar un solo servicio por reserva</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="78"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="67"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="70" t="s">
+      <c r="F4" s="56"/>
+      <c r="G4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="70"/>
+      <c r="H4" s="69"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -3668,10 +3671,10 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="73" t="s">
+      <c r="L4" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="74" t="s">
+      <c r="M4" s="73" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
@@ -3680,39 +3683,39 @@
       <c r="A5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="55" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="68" t="s">
+      <c r="F5" s="56"/>
+      <c r="G5" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="71" t="s">
+      <c r="H5" s="67"/>
+      <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="69" t="s">
+      <c r="K5" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="73"/>
-      <c r="M5" s="74"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="73"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="66"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="64"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
@@ -3726,23 +3729,23 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="74"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="73"/>
     </row>
     <row r="7" spans="1:14" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="115" t="s">
+      <c r="C7" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="109" t="s">
         <v>119</v>
       </c>
       <c r="E7" s="38" t="s">
@@ -3751,87 +3754,82 @@
       <c r="F7" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="107" t="s">
+      <c r="G7" s="109" t="s">
         <v>127</v>
       </c>
-      <c r="H7" s="115" t="s">
+      <c r="H7" s="117" t="s">
         <v>128</v>
       </c>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107" t="s">
+      <c r="I7" s="109"/>
+      <c r="J7" s="109" t="s">
         <v>122</v>
       </c>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
       <c r="M7" s="37"/>
     </row>
     <row r="8" spans="1:14" s="24" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="110" t="s">
+      <c r="B8" s="115"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="F8" s="111" t="s">
+      <c r="F8" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="G8" s="108"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
       <c r="M8" s="37"/>
     </row>
     <row r="9" spans="1:14" s="24" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="113"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="118"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="107"/>
     </row>
     <row r="10" spans="1:14" s="24" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="119"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="I7:I10"/>
     <mergeCell ref="J7:J10"/>
@@ -3846,11 +3844,16 @@
     <mergeCell ref="L7:L10"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="F8:F10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{18CEA1B4-004B-4488-B236-46DBE42B8EB7}"/>
@@ -3915,63 +3918,63 @@
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75" t="str">
+      <c r="B2" s="74" t="str">
         <f>+'Listado Objetos de Dominio'!A8</f>
         <v>Agenda</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="76"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="75"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="77" t="str">
+      <c r="B3" s="53" t="str">
         <f>+'Listado Objetos de Dominio'!B8</f>
         <v>Objeto de dominio que contiene la informacion de los horarios en los cuales se puede agendar una cita con estandar de 1h (Tiempo que dura cualquier servicio).</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="78"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="67"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="70" t="s">
+      <c r="F4" s="56"/>
+      <c r="G4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="70"/>
+      <c r="H4" s="69"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -3993,30 +3996,30 @@
       <c r="A5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="55" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="68" t="s">
+      <c r="F5" s="56"/>
+      <c r="G5" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="71" t="s">
+      <c r="H5" s="67"/>
+      <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="69" t="s">
+      <c r="K5" s="68" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="120"/>
@@ -4024,8 +4027,8 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="66"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="64"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
@@ -4039,96 +4042,110 @@
       <c r="H6" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="69"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="68"/>
       <c r="L6" s="120"/>
       <c r="M6" s="121"/>
     </row>
     <row r="7" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="115" t="s">
+      <c r="C7" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="109" t="s">
         <v>119</v>
       </c>
-      <c r="F7" s="112" t="s">
+      <c r="F7" s="114" t="s">
         <v>131</v>
       </c>
-      <c r="G7" s="112" t="s">
+      <c r="G7" s="114" t="s">
         <v>135</v>
       </c>
-      <c r="H7" s="115" t="s">
+      <c r="H7" s="117" t="s">
         <v>128</v>
       </c>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107" t="s">
+      <c r="I7" s="109"/>
+      <c r="J7" s="109" t="s">
         <v>132</v>
       </c>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
       <c r="M7" s="37"/>
     </row>
     <row r="8" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="109"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
       <c r="M8" s="37"/>
     </row>
     <row r="9" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="113"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="118"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="107"/>
     </row>
     <row r="10" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="119"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -4145,20 +4162,6 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="L7:L10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{4F649E6B-C094-4535-A8C6-177C97AC2229}"/>
@@ -4173,7 +4176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC22D6EE-B31A-4A8C-A06F-1B4DBCCD3AC5}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K2" workbookViewId="0">
+    <sheetView topLeftCell="K2" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -4223,63 +4226,63 @@
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75" t="str">
+      <c r="B2" s="74" t="str">
         <f>+'Listado Objetos de Dominio'!A9</f>
         <v>Servicio</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="76"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="75"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="77" t="str">
+      <c r="B3" s="53" t="str">
         <f>+'Listado Objetos de Dominio'!B9</f>
         <v>Objeto de dominio que contiene la informacion de los servicios que ofrece el Spa</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="78"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="67"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="70" t="s">
+      <c r="F4" s="56"/>
+      <c r="G4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="70"/>
+      <c r="H4" s="69"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -4289,10 +4292,10 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="73" t="s">
+      <c r="L4" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="74" t="s">
+      <c r="M4" s="73" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
@@ -4301,39 +4304,39 @@
       <c r="A5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="55" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="68" t="s">
+      <c r="F5" s="56"/>
+      <c r="G5" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="71" t="s">
+      <c r="H5" s="67"/>
+      <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="69" t="s">
+      <c r="K5" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="73"/>
-      <c r="M5" s="74"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="73"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="66"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="64"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
@@ -4347,94 +4350,111 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="74"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="73"/>
     </row>
     <row r="7" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="114" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="115" t="s">
+      <c r="C7" s="117" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="112" t="s">
+      <c r="F7" s="114" t="s">
         <v>144</v>
       </c>
-      <c r="G7" s="107" t="s">
+      <c r="G7" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="H7" s="115" t="s">
+      <c r="H7" s="117" t="s">
         <v>128</v>
       </c>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107" t="s">
+      <c r="I7" s="109"/>
+      <c r="J7" s="109" t="s">
         <v>145</v>
       </c>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
       <c r="M7" s="37"/>
     </row>
     <row r="8" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="109"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
       <c r="M8" s="37"/>
     </row>
     <row r="9" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="113"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="118"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="107"/>
     </row>
     <row r="10" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="109"/>
-      <c r="B10" s="114"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="119"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="G7:G10"/>
@@ -4449,23 +4469,6 @@
     <mergeCell ref="D7:D10"/>
     <mergeCell ref="E7:E10"/>
     <mergeCell ref="F7:F10"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{9C91744F-306B-4D6D-BC28-19B23AC38BD6}"/>
@@ -4529,63 +4532,63 @@
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75" t="str">
+      <c r="B2" s="74" t="str">
         <f>+'[1]Listado Objetos de Dominio'!A4</f>
         <v>Notificacion</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="76"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="75"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="77" t="str">
+      <c r="B3" s="53" t="str">
         <f>+'[1]Listado Objetos de Dominio'!B4</f>
         <v>Objeto de dominio que contiene la informacion de las notificaciones que emite el Spa</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="78"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="67"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="70" t="s">
+      <c r="F4" s="56"/>
+      <c r="G4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="70"/>
+      <c r="H4" s="69"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -4595,10 +4598,10 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="73" t="s">
+      <c r="L4" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="74" t="s">
+      <c r="M4" s="73" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
@@ -4607,39 +4610,39 @@
       <c r="A5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="55" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="68" t="s">
+      <c r="F5" s="56"/>
+      <c r="G5" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="71" t="s">
+      <c r="H5" s="67"/>
+      <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="69" t="s">
+      <c r="K5" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="73"/>
-      <c r="M5" s="74"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="73"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="66"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="64"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
@@ -4653,79 +4656,91 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="74"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="73"/>
     </row>
     <row r="7" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="122" t="s">
+      <c r="D7" s="123" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="30" t="s">
         <v>138</v>
       </c>
       <c r="H7" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="I7" s="129"/>
-      <c r="J7" s="56" t="s">
+      <c r="I7" s="130"/>
+      <c r="J7" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="K7" s="122"/>
+      <c r="K7" s="123"/>
       <c r="L7" s="30"/>
       <c r="M7" s="48"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="126" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="58"/>
       <c r="C8" s="58"/>
-      <c r="D8" s="123"/>
+      <c r="D8" s="124"/>
       <c r="E8" s="58"/>
       <c r="F8" s="58"/>
-      <c r="G8" s="122" t="s">
+      <c r="G8" s="123" t="s">
         <v>141</v>
       </c>
-      <c r="H8" s="127" t="s">
+      <c r="H8" s="128" t="s">
         <v>142</v>
       </c>
-      <c r="I8" s="130"/>
+      <c r="I8" s="131"/>
       <c r="J8" s="58"/>
-      <c r="K8" s="123"/>
+      <c r="K8" s="124"/>
       <c r="L8" s="30"/>
       <c r="M8" s="48"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="126"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="124"/>
+      <c r="A9" s="127"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="125"/>
       <c r="L9" s="30"/>
       <c r="M9" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="I7:I9"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -4742,18 +4757,6 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="I7:I9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{1936622F-8492-48B1-9CC1-91EE0F46A993}"/>
@@ -4770,15 +4773,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009649131083C14B4DA86A8CCE286EB917" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="33d994151d56ba12daba8e54dbe95711">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e7b8f57-5761-4b68-bc8b-a5313b5a9473" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b2c88e9cfcedcae53c44b46a6fb09bd" ns2:_="">
     <xsd:import namespace="2e7b8f57-5761-4b68-bc8b-a5313b5a9473"/>
@@ -4922,6 +4916,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
   <ds:schemaRefs>
@@ -4940,14 +4943,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A52D198E-1C75-45AD-8A7E-B98F5C4409CF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4965,6 +4960,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{86cab09b-e61a-4c01-96e7-67fc9e3d8cd5}" enabled="1" method="Standard" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="8" removed="0"/>
